--- a/Data/Original Data/Proy_usach.xlsx
+++ b/Data/Original Data/Proy_usach.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\DSA\Magister\Ciencia Abierta y Software Libre\DesarrolloVCMUSACH-master\Data\Original Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dasal\Desktop\MapeoExtrauniversitariosUSACH-master\Data\Original Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DF4DDA-1B86-43E8-806C-187740797224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EC7E06-92B5-4227-91BE-ECEE1D3869F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="-11640" windowWidth="20640" windowHeight="11310" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyectos" sheetId="1" r:id="rId1"/>
     <sheet name="Actrs" sheetId="2" r:id="rId2"/>
+    <sheet name="Infterr" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Actrs!$A$1:$M$134</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="636">
   <si>
     <t>Inicio</t>
   </si>
@@ -1767,6 +1768,180 @@
   </si>
   <si>
     <t>trabajador independiente</t>
+  </si>
+  <si>
+    <t>codigo_comuna</t>
+  </si>
+  <si>
+    <t>Actores</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>Circu</t>
+  </si>
+  <si>
+    <t>IPS</t>
+  </si>
+  <si>
+    <t>IPSnum</t>
+  </si>
+  <si>
+    <t>Alhue</t>
+  </si>
+  <si>
+    <t>CC4</t>
+  </si>
+  <si>
+    <t>Media Baja</t>
+  </si>
+  <si>
+    <t>Buin</t>
+  </si>
+  <si>
+    <t>Media Alta</t>
+  </si>
+  <si>
+    <t>Calera de Tango</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Colina</t>
+  </si>
+  <si>
+    <t>Curacavi</t>
+  </si>
+  <si>
+    <t>El Monte</t>
+  </si>
+  <si>
+    <t>Independencia</t>
+  </si>
+  <si>
+    <t>CC2</t>
+  </si>
+  <si>
+    <t>La Reina</t>
+  </si>
+  <si>
+    <t>CC3</t>
+  </si>
+  <si>
+    <t>Sin Prioridad</t>
+  </si>
+  <si>
+    <t>Lo Barnechea</t>
+  </si>
+  <si>
+    <t>Lo Espejo</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Macul</t>
+  </si>
+  <si>
+    <t>Maria Pinto</t>
+  </si>
+  <si>
+    <t>Padre Hurtado</t>
+  </si>
+  <si>
+    <t>Paine</t>
+  </si>
+  <si>
+    <t>Pedro Aguirre Cerda</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>Penaflor</t>
+  </si>
+  <si>
+    <t>Penalolen</t>
+  </si>
+  <si>
+    <t>Pirque</t>
+  </si>
+  <si>
+    <t>Pudahuel</t>
+  </si>
+  <si>
+    <t>Recoleta</t>
+  </si>
+  <si>
+    <t>Renca</t>
+  </si>
+  <si>
+    <t>San Joaquin</t>
+  </si>
+  <si>
+    <t>San Pedro</t>
+  </si>
+  <si>
+    <t>San Ramon</t>
+  </si>
+  <si>
+    <t>Talagante</t>
+  </si>
+  <si>
+    <t>Tiltil</t>
+  </si>
+  <si>
+    <t>Cerro Navia</t>
+  </si>
+  <si>
+    <t>Isla de Maipo</t>
+  </si>
+  <si>
+    <t>La Cisterna</t>
+  </si>
+  <si>
+    <t>La Florida</t>
+  </si>
+  <si>
+    <t>La Granja</t>
+  </si>
+  <si>
+    <t>La Pintana</t>
+  </si>
+  <si>
+    <t>San Bernardo</t>
+  </si>
+  <si>
+    <t>Lo Prado</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
+  </si>
+  <si>
+    <t>El Bosque</t>
+  </si>
+  <si>
+    <t>Las Condes</t>
+  </si>
+  <si>
+    <t>San Jose de Maipo</t>
+  </si>
+  <si>
+    <t>Puente Alto</t>
+  </si>
+  <si>
+    <t>Quinta Normal</t>
+  </si>
+  <si>
+    <t>Ñuñoa</t>
+  </si>
+  <si>
+    <t>Maipú</t>
+  </si>
+  <si>
+    <t>Estación Central</t>
   </si>
 </sst>
 </file>
@@ -1840,7 +2015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1883,6 +2058,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2267,20 +2444,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.21875" customWidth="1"/>
-    <col min="3" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="4.5546875" customWidth="1"/>
-    <col min="7" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2312,7 +2489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>2018</v>
       </c>
@@ -2344,7 +2521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2018</v>
       </c>
@@ -2376,7 +2553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2018</v>
       </c>
@@ -2408,7 +2585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2018</v>
       </c>
@@ -2440,7 +2617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2018</v>
       </c>
@@ -2472,7 +2649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2018</v>
       </c>
@@ -2504,7 +2681,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2018</v>
       </c>
@@ -2536,7 +2713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2018</v>
       </c>
@@ -2568,7 +2745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2018</v>
       </c>
@@ -2600,7 +2777,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2018</v>
       </c>
@@ -2632,7 +2809,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2018</v>
       </c>
@@ -2664,7 +2841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2018</v>
       </c>
@@ -2696,7 +2873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>2018</v>
       </c>
@@ -2728,7 +2905,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2018</v>
       </c>
@@ -2760,7 +2937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2018</v>
       </c>
@@ -2792,7 +2969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2018</v>
       </c>
@@ -2824,7 +3001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2018</v>
       </c>
@@ -2856,7 +3033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2018</v>
       </c>
@@ -2888,7 +3065,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2018</v>
       </c>
@@ -2920,7 +3097,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2019</v>
       </c>
@@ -2952,7 +3129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2019</v>
       </c>
@@ -2984,7 +3161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2019</v>
       </c>
@@ -3016,7 +3193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2019</v>
       </c>
@@ -3048,7 +3225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2019</v>
       </c>
@@ -3080,7 +3257,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2019</v>
       </c>
@@ -3112,7 +3289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>2019</v>
       </c>
@@ -3144,7 +3321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>2019</v>
       </c>
@@ -3176,7 +3353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>2019</v>
       </c>
@@ -3208,7 +3385,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2019</v>
       </c>
@@ -3240,7 +3417,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2019</v>
       </c>
@@ -3272,7 +3449,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2019</v>
       </c>
@@ -3304,7 +3481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>2019</v>
       </c>
@@ -3336,7 +3513,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>2019</v>
       </c>
@@ -3368,7 +3545,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>2019</v>
       </c>
@@ -3400,7 +3577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>2019</v>
       </c>
@@ -3432,7 +3609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>2019</v>
       </c>
@@ -3464,7 +3641,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>2019</v>
       </c>
@@ -3496,7 +3673,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2019</v>
       </c>
@@ -3528,7 +3705,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>2019</v>
       </c>
@@ -3560,7 +3737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>2019</v>
       </c>
@@ -3592,7 +3769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>2019</v>
       </c>
@@ -3624,7 +3801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>2020</v>
       </c>
@@ -3656,7 +3833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>2020</v>
       </c>
@@ -3688,7 +3865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>2020</v>
       </c>
@@ -3720,7 +3897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>2020</v>
       </c>
@@ -3752,7 +3929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>2020</v>
       </c>
@@ -3784,7 +3961,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>2020</v>
       </c>
@@ -3816,7 +3993,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>2020</v>
       </c>
@@ -3846,7 +4023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>2020</v>
       </c>
@@ -3876,7 +4053,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>2020</v>
       </c>
@@ -3908,7 +4085,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>2020</v>
       </c>
@@ -3940,7 +4117,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>2020</v>
       </c>
@@ -3972,7 +4149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>2020</v>
       </c>
@@ -4004,7 +4181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>2020</v>
       </c>
@@ -4036,7 +4213,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>2020</v>
       </c>
@@ -4068,7 +4245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>2020</v>
       </c>
@@ -4100,7 +4277,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>2020</v>
       </c>
@@ -4132,7 +4309,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>2020</v>
       </c>
@@ -4164,7 +4341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>2020</v>
       </c>
@@ -4196,7 +4373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>2020</v>
       </c>
@@ -4228,7 +4405,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>2020</v>
       </c>
@@ -4270,18 +4447,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.88671875" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="2.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4322,7 +4499,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>2019</v>
       </c>
@@ -4363,7 +4540,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2019</v>
       </c>
@@ -4404,7 +4581,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2019</v>
       </c>
@@ -4445,7 +4622,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2019</v>
       </c>
@@ -4486,7 +4663,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2019</v>
       </c>
@@ -4527,7 +4704,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2019</v>
       </c>
@@ -4568,7 +4745,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2019</v>
       </c>
@@ -4609,7 +4786,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2019</v>
       </c>
@@ -4646,7 +4823,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2019</v>
       </c>
@@ -4687,7 +4864,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2019</v>
       </c>
@@ -4728,7 +4905,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2019</v>
       </c>
@@ -4769,7 +4946,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2019</v>
       </c>
@@ -4810,7 +4987,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2019</v>
       </c>
@@ -4851,7 +5028,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2019</v>
       </c>
@@ -4892,7 +5069,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2019</v>
       </c>
@@ -4933,7 +5110,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2019</v>
       </c>
@@ -4974,7 +5151,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2019</v>
       </c>
@@ -5011,7 +5188,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2020</v>
       </c>
@@ -5052,7 +5229,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2019</v>
       </c>
@@ -5089,7 +5266,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2019</v>
       </c>
@@ -5130,7 +5307,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2019</v>
       </c>
@@ -5171,7 +5348,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2019</v>
       </c>
@@ -5212,7 +5389,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2019</v>
       </c>
@@ -5253,7 +5430,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2019</v>
       </c>
@@ -5294,7 +5471,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2019</v>
       </c>
@@ -5335,7 +5512,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2019</v>
       </c>
@@ -5376,7 +5553,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>2018</v>
       </c>
@@ -5417,7 +5594,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>2018</v>
       </c>
@@ -5458,7 +5635,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2018</v>
       </c>
@@ -5499,7 +5676,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2018</v>
       </c>
@@ -5540,7 +5717,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2018</v>
       </c>
@@ -5581,7 +5758,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>2018</v>
       </c>
@@ -5622,7 +5799,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>2019</v>
       </c>
@@ -5663,7 +5840,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>2019</v>
       </c>
@@ -5704,7 +5881,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>2020</v>
       </c>
@@ -5745,7 +5922,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>2019</v>
       </c>
@@ -5786,7 +5963,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>2019</v>
       </c>
@@ -5827,7 +6004,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2019</v>
       </c>
@@ -5868,7 +6045,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>2019</v>
       </c>
@@ -5909,7 +6086,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>2019</v>
       </c>
@@ -5950,7 +6127,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>2019</v>
       </c>
@@ -5991,7 +6168,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>2019</v>
       </c>
@@ -6032,7 +6209,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>2019</v>
       </c>
@@ -6073,7 +6250,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>2019</v>
       </c>
@@ -6114,7 +6291,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>2018</v>
       </c>
@@ -6155,7 +6332,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>2018</v>
       </c>
@@ -6196,7 +6373,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>2020</v>
       </c>
@@ -6237,7 +6414,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>2020</v>
       </c>
@@ -6278,7 +6455,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>2020</v>
       </c>
@@ -6319,7 +6496,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>2020</v>
       </c>
@@ -6360,7 +6537,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>2019</v>
       </c>
@@ -6401,7 +6578,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>2019</v>
       </c>
@@ -6442,7 +6619,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>2019</v>
       </c>
@@ -6483,7 +6660,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>2019</v>
       </c>
@@ -6524,7 +6701,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>2019</v>
       </c>
@@ -6565,7 +6742,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>2019</v>
       </c>
@@ -6606,7 +6783,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>2019</v>
       </c>
@@ -6647,7 +6824,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>2019</v>
       </c>
@@ -6688,7 +6865,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>2019</v>
       </c>
@@ -6729,7 +6906,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>2019</v>
       </c>
@@ -6770,7 +6947,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>2020</v>
       </c>
@@ -6811,7 +6988,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>2020</v>
       </c>
@@ -6852,7 +7029,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>2020</v>
       </c>
@@ -6893,7 +7070,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>2019</v>
       </c>
@@ -6930,7 +7107,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>2019</v>
       </c>
@@ -6971,7 +7148,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>2019</v>
       </c>
@@ -7012,7 +7189,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>2019</v>
       </c>
@@ -7053,7 +7230,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>2018</v>
       </c>
@@ -7094,7 +7271,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>2018</v>
       </c>
@@ -7135,7 +7312,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>2019</v>
       </c>
@@ -7176,7 +7353,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>2019</v>
       </c>
@@ -7217,7 +7394,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>2019</v>
       </c>
@@ -7258,7 +7435,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>2020</v>
       </c>
@@ -7299,7 +7476,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>2018</v>
       </c>
@@ -7340,7 +7517,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>2020</v>
       </c>
@@ -7381,7 +7558,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>2020</v>
       </c>
@@ -7422,7 +7599,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>2020</v>
       </c>
@@ -7463,7 +7640,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>2019</v>
       </c>
@@ -7504,7 +7681,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>2018</v>
       </c>
@@ -7545,7 +7722,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>2018</v>
       </c>
@@ -7586,7 +7763,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>2018</v>
       </c>
@@ -7627,7 +7804,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>2020</v>
       </c>
@@ -7668,7 +7845,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>2019</v>
       </c>
@@ -7709,7 +7886,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>2020</v>
       </c>
@@ -7750,7 +7927,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>2018</v>
       </c>
@@ -7791,7 +7968,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>2018</v>
       </c>
@@ -7832,7 +8009,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>2020</v>
       </c>
@@ -7873,7 +8050,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>2020</v>
       </c>
@@ -7914,7 +8091,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>2020</v>
       </c>
@@ -7955,7 +8132,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>2020</v>
       </c>
@@ -7996,7 +8173,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>2020</v>
       </c>
@@ -8037,7 +8214,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>2020</v>
       </c>
@@ -8078,7 +8255,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>2020</v>
       </c>
@@ -8119,7 +8296,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>2020</v>
       </c>
@@ -8160,7 +8337,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>2020</v>
       </c>
@@ -8201,7 +8378,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>2018</v>
       </c>
@@ -8242,7 +8419,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>2018</v>
       </c>
@@ -8283,7 +8460,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>2018</v>
       </c>
@@ -8324,7 +8501,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>2018</v>
       </c>
@@ -8365,7 +8542,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>2018</v>
       </c>
@@ -8406,7 +8583,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>2018</v>
       </c>
@@ -8447,7 +8624,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>2018</v>
       </c>
@@ -8488,7 +8665,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>2020</v>
       </c>
@@ -8529,7 +8706,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>2018</v>
       </c>
@@ -8570,7 +8747,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>2018</v>
       </c>
@@ -8611,7 +8788,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>2018</v>
       </c>
@@ -8652,7 +8829,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>2018</v>
       </c>
@@ -8693,7 +8870,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>2020</v>
       </c>
@@ -8734,7 +8911,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>2020</v>
       </c>
@@ -8775,7 +8952,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>2018</v>
       </c>
@@ -8816,7 +8993,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>2018</v>
       </c>
@@ -8857,7 +9034,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>2018</v>
       </c>
@@ -8898,7 +9075,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>2018</v>
       </c>
@@ -8939,7 +9116,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>2018</v>
       </c>
@@ -8980,7 +9157,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>2018</v>
       </c>
@@ -9021,7 +9198,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>2018</v>
       </c>
@@ -9062,7 +9239,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>2020</v>
       </c>
@@ -9103,7 +9280,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>2020</v>
       </c>
@@ -9140,7 +9317,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>2020</v>
       </c>
@@ -9181,7 +9358,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>2018</v>
       </c>
@@ -9222,7 +9399,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>2018</v>
       </c>
@@ -9263,7 +9440,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>2018</v>
       </c>
@@ -9304,7 +9481,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>2020</v>
       </c>
@@ -9345,7 +9522,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>2020</v>
       </c>
@@ -9386,7 +9563,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>2020</v>
       </c>
@@ -9427,7 +9604,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>2018</v>
       </c>
@@ -9468,7 +9645,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>2018</v>
       </c>
@@ -9509,7 +9686,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>2018</v>
       </c>
@@ -9550,7 +9727,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>2018</v>
       </c>
@@ -9591,7 +9768,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>2018</v>
       </c>
@@ -9632,7 +9809,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>2018</v>
       </c>
@@ -9673,7 +9850,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>2018</v>
       </c>
@@ -9714,7 +9891,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>2018</v>
       </c>
@@ -9762,4 +9939,1238 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243AD8A1-4EF5-4F36-A41C-E6CCA034075B}">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>13502</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G2" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>13402</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G3" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>13403</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G4" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>13301</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G5" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>13503</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G6" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>13602</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G7" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>13108</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>594</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G8" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>13113</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>596</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="G9" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>13115</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="G10" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>13116</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>13118</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G12" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>13504</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>13604</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G14" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>13404</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G15" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>13121</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G16" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>13605</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G17" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>13122</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G18" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>13202</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G19" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>13124</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G20" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>13127</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G21" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>13128</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G22" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>13129</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G23" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>13505</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G24" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>13131</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>13601</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G26" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>13303</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G27" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>13102</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G28" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>13103</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>13107</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G30" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>13603</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>13109</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G32" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>13110</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G33" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>13111</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G34" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>13112</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>13501</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G36" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>13401</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G37" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
+        <v>13132</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="G38" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>13104</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="C39" s="6">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G39" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
+        <v>13302</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G40" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="18">
+        <v>13117</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="C41" s="6">
+        <v>2</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G41" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="18">
+        <v>13125</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C42" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G42" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
+        <v>13130</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G43" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
+        <v>13105</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="C44" s="6">
+        <v>3</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G44" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="18">
+        <v>13114</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="C45" s="6">
+        <v>4</v>
+      </c>
+      <c r="D45" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="G45" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="18">
+        <v>13203</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="C46" s="6">
+        <v>4</v>
+      </c>
+      <c r="D46" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G46" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>13123</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="C47" s="6">
+        <v>5</v>
+      </c>
+      <c r="D47" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="G47" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
+        <v>13201</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="C48" s="6">
+        <v>5</v>
+      </c>
+      <c r="D48" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G48" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="18">
+        <v>13126</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="C49" s="6">
+        <v>5</v>
+      </c>
+      <c r="D49" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G49" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
+        <v>13120</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="C50" s="6">
+        <v>7</v>
+      </c>
+      <c r="D50" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="G50" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
+        <v>13119</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="C51" s="6">
+        <v>13</v>
+      </c>
+      <c r="D51" s="6">
+        <v>11.6</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G51" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="18">
+        <v>13101</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" s="6">
+        <v>22</v>
+      </c>
+      <c r="D52" s="6">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G52" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
+        <v>13106</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="C53" s="6">
+        <v>23</v>
+      </c>
+      <c r="D53" s="6">
+        <v>20.5</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G53" s="19">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>